--- a/translate.xlsx
+++ b/translate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="440">
   <si>
     <t>تدوير</t>
   </si>
@@ -1321,13 +1321,31 @@
   </si>
   <si>
     <t>Safe</t>
+  </si>
+  <si>
+    <t>الاندماج المجتمعى</t>
+  </si>
+  <si>
+    <t>العدالة الاجتماعية</t>
+  </si>
+  <si>
+    <t>عماله اطفال</t>
+  </si>
+  <si>
+    <t>social_inclusion</t>
+  </si>
+  <si>
+    <t>social_justice</t>
+  </si>
+  <si>
+    <t>Child_workers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1344,6 +1362,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1429,7 +1452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1462,6 +1485,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1743,10 +1772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C302"/>
+  <dimension ref="A1:C305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="B290" sqref="B290"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="A229" sqref="A229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4174,7 +4203,32 @@
         <v>422</v>
       </c>
     </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>434</v>
+      </c>
+      <c r="B303" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="B304" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>436</v>
+      </c>
+      <c r="B305" s="16" t="s">
+        <v>439</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>